--- a/files/osa_tables.xlsx
+++ b/files/osa_tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/japmiett/projects/sleep22/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/japmiett/projects/sleep22/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260970AC-A553-5146-B259-9A6ED5C1A3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7972B918-69FB-714A-A3BE-A77520BF42AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="500" windowWidth="33600" windowHeight="19980" activeTab="2" xr2:uid="{7FC47E8F-E010-49C7-86E2-B4A33207D378}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" activeTab="3" xr2:uid="{7FC47E8F-E010-49C7-86E2-B4A33207D378}"/>
   </bookViews>
   <sheets>
     <sheet name="osa_armeni" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="281">
   <si>
     <t>Female</t>
   </si>
@@ -152,18 +152,12 @@
     <t>Moderate</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>gender</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
-    <t>var</t>
-  </si>
-  <si>
     <t>Moderate (15≤AHI&lt;30)</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t xml:space="preserve">AGED 15-74 </t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>pop30_69</t>
   </si>
   <si>
@@ -854,12 +845,6 @@
     <t>Overall</t>
   </si>
   <si>
-    <t>Overall(men)</t>
-  </si>
-  <si>
-    <t>Overall(women)</t>
-  </si>
-  <si>
     <t>direct_healthcare_cost</t>
   </si>
   <si>
@@ -879,6 +864,24 @@
   </si>
   <si>
     <t>Diabetic kidney disease</t>
+  </si>
+  <si>
+    <t>All-cause mortality</t>
+  </si>
+  <si>
+    <t>Cardiovascular mortality</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>osa_rate</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>location_name</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,12 +949,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1856,7 +1863,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2213,12 +2220,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2227,6 +2228,14 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good 2" xfId="1" xr:uid="{9AC0AD8C-65E9-5D4F-88EC-B8B3C257F882}"/>
@@ -2547,7 +2556,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2558,19 +2567,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2578,7 +2587,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="145" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -2587,7 +2596,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2595,7 +2604,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -2604,7 +2613,7 @@
         <v>0.1</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2621,7 +2630,7 @@
         <v>0.09</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2638,7 +2647,7 @@
         <v>0.25</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2655,7 +2664,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2672,15 +2681,15 @@
         <v>0.22</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>0</v>
@@ -2689,15 +2698,15 @@
         <v>0.18</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>1</v>
@@ -2706,7 +2715,7 @@
         <v>0.36</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2714,16 +2723,16 @@
         <v>34</v>
       </c>
       <c r="B10" s="145" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D10" s="5">
         <v>0.27</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2731,16 +2740,16 @@
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D11" s="5">
         <v>0.12</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2751,30 +2760,30 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D12" s="5">
         <v>0.15</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D13" s="5">
         <v>0.27</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,36 +2806,36 @@
   <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="148" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="152" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="153" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="153" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="147" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="147" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="147" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="148" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="149">
+      <c r="B2" s="147">
         <v>8429549</v>
       </c>
       <c r="C2">
@@ -2837,10 +2846,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="148" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="149">
+      <c r="A3" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="147">
         <v>1357655</v>
       </c>
       <c r="C3">
@@ -2851,10 +2860,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="148" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="149">
+      <c r="A4" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="147">
         <v>16435999</v>
       </c>
       <c r="C4">
@@ -2865,10 +2874,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="148" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="149">
+      <c r="A5" s="146" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="147">
         <v>6091184</v>
       </c>
       <c r="C5">
@@ -2879,10 +2888,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="148" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="149">
+      <c r="A6" s="146" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="147">
         <v>42485</v>
       </c>
       <c r="C6">
@@ -2893,10 +2902,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="149">
+      <c r="A7" s="146" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="147">
         <v>19016260</v>
       </c>
       <c r="C7">
@@ -2907,10 +2916,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="148" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="149">
+      <c r="A8" s="146" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="147">
         <v>1513141</v>
       </c>
       <c r="C8">
@@ -2921,10 +2930,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="148" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="149">
+      <c r="A9" s="146" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="147">
         <v>56900</v>
       </c>
       <c r="C9">
@@ -2935,10 +2944,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="149">
+      <c r="A10" s="146" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="147">
         <v>12110362</v>
       </c>
       <c r="C10">
@@ -2949,10 +2958,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="149">
+      <c r="A11" s="146" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="147">
         <v>4601766</v>
       </c>
       <c r="C11">
@@ -2963,10 +2972,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="148" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="149">
+      <c r="A12" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="147">
         <v>4622249</v>
       </c>
       <c r="C12">
@@ -2977,10 +2986,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="148" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="149">
+      <c r="A13" s="146" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="147">
         <v>189235</v>
       </c>
       <c r="C13">
@@ -2991,10 +3000,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="149">
+      <c r="A14" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="147">
         <v>679684</v>
       </c>
       <c r="C14">
@@ -3005,10 +3014,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="149">
+      <c r="A15" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="147">
         <v>62623678</v>
       </c>
       <c r="C15">
@@ -3019,10 +3028,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="148" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="149">
+      <c r="A16" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="147">
         <v>147687</v>
       </c>
       <c r="C16">
@@ -3033,10 +3042,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="148" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="149">
+      <c r="A17" s="146" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="147">
         <v>5155802</v>
       </c>
       <c r="C17">
@@ -3047,10 +3056,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="148" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="149">
+      <c r="A18" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="147">
         <v>5917763</v>
       </c>
       <c r="C18">
@@ -3061,10 +3070,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="148" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="149">
+      <c r="A19" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="147">
         <v>128677</v>
       </c>
       <c r="C19">
@@ -3075,10 +3084,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="148" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="149">
+      <c r="A20" s="146" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="147">
         <v>3096334</v>
       </c>
       <c r="C20">
@@ -3089,10 +3098,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="148" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="149">
+      <c r="A21" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="147">
         <v>310278</v>
       </c>
       <c r="C21">
@@ -3103,10 +3112,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="148" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="149">
+      <c r="A22" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="147">
         <v>3816716</v>
       </c>
       <c r="C22">
@@ -3117,10 +3126,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="148" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="149">
+      <c r="A23" s="146" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="147">
         <v>2185242</v>
       </c>
       <c r="C23">
@@ -3131,10 +3140,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="148" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="149">
+      <c r="A24" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="147">
         <v>826982</v>
       </c>
       <c r="C24">
@@ -3145,10 +3154,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="149">
+      <c r="A25" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="147">
         <v>98118248</v>
       </c>
       <c r="C25">
@@ -3159,10 +3168,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" s="149">
+      <c r="A26" s="146" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="147">
         <v>205295</v>
       </c>
       <c r="C26">
@@ -3173,10 +3182,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="148" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="149">
+      <c r="A27" s="146" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="147">
         <v>4008872</v>
       </c>
       <c r="C27">
@@ -3187,10 +3196,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="148" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="149">
+      <c r="A28" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="147">
         <v>4632827</v>
       </c>
       <c r="C28">
@@ -3201,10 +3210,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="148" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="149">
+      <c r="A29" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="147">
         <v>2912564</v>
       </c>
       <c r="C29">
@@ -3215,10 +3224,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="149">
+      <c r="A30" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="147">
         <v>181546</v>
       </c>
       <c r="C30">
@@ -3229,10 +3238,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="148" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="149">
+      <c r="A31" s="146" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="147">
         <v>5791914</v>
       </c>
       <c r="C31">
@@ -3243,10 +3252,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="148" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="149">
+      <c r="A32" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="147">
         <v>6304367</v>
       </c>
       <c r="C32">
@@ -3257,10 +3266,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="148" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="149">
+      <c r="A33" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="147">
         <v>19273831</v>
       </c>
       <c r="C33">
@@ -3271,10 +3280,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="148" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="149">
+      <c r="A34" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="147">
         <v>1443196</v>
       </c>
       <c r="C34">
@@ -3285,10 +3294,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="148" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="149">
+      <c r="A35" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="147">
         <v>3268977</v>
       </c>
       <c r="C35">
@@ -3299,10 +3308,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="148" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="149">
+      <c r="A36" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="147">
         <v>8809775</v>
       </c>
       <c r="C36">
@@ -3313,10 +3322,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="149">
+      <c r="A37" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="147">
         <v>744511252</v>
       </c>
       <c r="C37">
@@ -3327,10 +3336,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="148" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="149">
+      <c r="A38" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="147">
         <v>22074042</v>
       </c>
       <c r="C38">
@@ -3341,10 +3350,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="148" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="149">
+      <c r="A39" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="147">
         <v>235465</v>
       </c>
       <c r="C39">
@@ -3355,10 +3364,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="148" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="149">
+      <c r="A40" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="147">
         <v>1344345</v>
       </c>
       <c r="C40">
@@ -3369,10 +3378,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="148" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="149">
+      <c r="A41" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="147">
         <v>2237598</v>
       </c>
       <c r="C41">
@@ -3383,10 +3392,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="148" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="149">
+      <c r="A42" s="146" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="147">
         <v>6367814</v>
       </c>
       <c r="C42">
@@ -3397,10 +3406,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="148" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="149">
+      <c r="A43" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="147">
         <v>2312850</v>
       </c>
       <c r="C43">
@@ -3411,10 +3420,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="148" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="149">
+      <c r="A44" s="146" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="147">
         <v>6188715</v>
       </c>
       <c r="C44">
@@ -3425,10 +3434,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="148" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="149">
+      <c r="A45" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="147">
         <v>81939</v>
       </c>
       <c r="C45">
@@ -3439,10 +3448,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="148" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="149">
+      <c r="A46" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="147">
         <v>603532</v>
       </c>
       <c r="C46">
@@ -3453,10 +3462,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="148" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="149">
+      <c r="A47" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="147">
         <v>5973449</v>
       </c>
       <c r="C47">
@@ -3467,10 +3476,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="148" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="149">
+      <c r="A48" s="146" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="147">
         <v>19722105</v>
       </c>
       <c r="C48">
@@ -3481,10 +3490,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="148" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="149">
+      <c r="A49" s="146" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="147">
         <v>2927893</v>
       </c>
       <c r="C49">
@@ -3495,10 +3504,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="148" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="149">
+      <c r="A50" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="147">
         <v>310917</v>
       </c>
       <c r="C50">
@@ -3509,10 +3518,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="148" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="149">
+      <c r="A51" s="146" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="147">
         <v>4125868</v>
       </c>
       <c r="C51">
@@ -3523,10 +3532,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="148" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="149">
+      <c r="A52" s="146" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="147">
         <v>6442389</v>
       </c>
       <c r="C52">
@@ -3537,10 +3546,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="148" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="149">
+      <c r="A53" s="146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="147">
         <v>34241981</v>
       </c>
       <c r="C53">
@@ -3551,10 +3560,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="148" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="149">
+      <c r="A54" s="146" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="147">
         <v>2385301</v>
       </c>
       <c r="C54">
@@ -3565,10 +3574,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="148" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="149">
+      <c r="A55" s="146" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="147">
         <v>269554</v>
       </c>
       <c r="C55">
@@ -3579,10 +3588,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="148" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="149">
+      <c r="A56" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="147">
         <v>1444877</v>
       </c>
       <c r="C56">
@@ -3593,10 +3602,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="149">
+      <c r="A57" s="146" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="147">
         <v>686893</v>
       </c>
       <c r="C57">
@@ -3607,10 +3616,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="148" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="149">
+      <c r="A58" s="146" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="147">
         <v>348096</v>
       </c>
       <c r="C58">
@@ -3621,10 +3630,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="148" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="149">
+      <c r="A59" s="146" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="147">
         <v>27021835</v>
       </c>
       <c r="C59">
@@ -3635,10 +3644,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="148" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="149">
+      <c r="A60" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="147">
         <v>31811</v>
       </c>
       <c r="C60">
@@ -3649,10 +3658,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" s="149">
+      <c r="A61" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="147">
         <v>382118</v>
       </c>
       <c r="C61">
@@ -3663,10 +3672,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="148" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" s="149">
+      <c r="A62" s="146" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="147">
         <v>2894948</v>
       </c>
       <c r="C62">
@@ -3677,10 +3686,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="148" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" s="149">
+      <c r="A63" s="146" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="147">
         <v>32613385</v>
       </c>
       <c r="C63">
@@ -3691,10 +3700,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="148" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" s="149">
+      <c r="A64" s="146" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="147">
         <v>133978</v>
       </c>
       <c r="C64">
@@ -3705,10 +3714,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="148" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="149">
+      <c r="A65" s="146" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="147">
         <v>543329</v>
       </c>
       <c r="C65">
@@ -3719,10 +3728,10 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="148" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="149">
+      <c r="A66" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="147">
         <v>503578</v>
       </c>
       <c r="C66">
@@ -3733,10 +3742,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="148" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" s="149">
+      <c r="A67" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="147">
         <v>2021511</v>
       </c>
       <c r="C67">
@@ -3747,10 +3756,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="148" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="149">
+      <c r="A68" s="146" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="147">
         <v>43751645</v>
       </c>
       <c r="C68">
@@ -3761,10 +3770,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="148" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="149">
+      <c r="A69" s="146" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="147">
         <v>8651157</v>
       </c>
       <c r="C69">
@@ -3775,10 +3784,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="148" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" s="149">
+      <c r="A70" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="147">
         <v>5966188</v>
       </c>
       <c r="C70">
@@ -3789,10 +3798,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="148" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="149">
+      <c r="A71" s="146" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="147">
         <v>41701</v>
       </c>
       <c r="C71">
@@ -3803,10 +3812,10 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="148" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" s="149">
+      <c r="A72" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" s="147">
         <v>76175</v>
       </c>
       <c r="C72">
@@ -3817,10 +3826,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="148" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="149">
+      <c r="A73" s="146" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="147">
         <v>5115784</v>
       </c>
       <c r="C73">
@@ -3831,10 +3840,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="148" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="149">
+      <c r="A74" s="146" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="147">
         <v>3554378</v>
       </c>
       <c r="C74">
@@ -3845,10 +3854,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="148" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="149">
+      <c r="A75" s="146" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="147">
         <v>544150</v>
       </c>
       <c r="C75">
@@ -3859,10 +3868,10 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="148" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="149">
+      <c r="A76" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="147">
         <v>315281</v>
       </c>
       <c r="C76">
@@ -3873,10 +3882,10 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="149">
+      <c r="A77" s="146" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="147">
         <v>3652569</v>
       </c>
       <c r="C77">
@@ -3887,10 +3896,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="149">
+      <c r="A78" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="147">
         <v>2770841</v>
       </c>
       <c r="C78">
@@ -3901,10 +3910,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" s="149">
+      <c r="A79" s="146" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="147">
         <v>4377697</v>
       </c>
       <c r="C79">
@@ -3915,10 +3924,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="149">
+      <c r="A80" s="146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="147">
         <v>5445718</v>
       </c>
       <c r="C80">
@@ -3929,10 +3938,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="149">
+      <c r="A81" s="146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="147">
         <v>162564</v>
       </c>
       <c r="C81">
@@ -3943,10 +3952,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="149">
+      <c r="A82" s="146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="147">
         <v>534676709</v>
       </c>
       <c r="C82">
@@ -3957,10 +3966,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="149">
+      <c r="A83" s="146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="147">
         <v>114334042</v>
       </c>
       <c r="C83">
@@ -3971,10 +3980,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="148" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="149">
+      <c r="A84" s="146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="147">
         <v>36179787</v>
       </c>
       <c r="C84">
@@ -3985,10 +3994,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="148" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="149">
+      <c r="A85" s="146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="147">
         <v>10771896</v>
       </c>
       <c r="C85">
@@ -3999,10 +4008,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="148" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" s="149">
+      <c r="A86" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="147">
         <v>2447445</v>
       </c>
       <c r="C86">
@@ -4013,10 +4022,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="148" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="149">
+      <c r="A87" s="146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="147">
         <v>3465330</v>
       </c>
       <c r="C87">
@@ -4027,10 +4036,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="148" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" s="149">
+      <c r="A88" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="147">
         <v>33020571</v>
       </c>
       <c r="C88">
@@ -4041,10 +4050,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="148" t="s">
-        <v>156</v>
-      </c>
-      <c r="B89" s="149">
+      <c r="A89" s="146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="147">
         <v>1176758</v>
       </c>
       <c r="C89">
@@ -4055,10 +4064,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="148" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="149">
+      <c r="A90" s="146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="147">
         <v>67496374</v>
       </c>
       <c r="C90">
@@ -4069,10 +4078,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="B91" s="149">
+      <c r="A91" s="146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="147">
         <v>2636480</v>
       </c>
       <c r="C91">
@@ -4083,10 +4092,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="148" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="149">
+      <c r="A92" s="146" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="147">
         <v>7774654</v>
       </c>
       <c r="C92">
@@ -4097,10 +4106,10 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="148" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="149">
+      <c r="A93" s="146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="147">
         <v>13024588</v>
       </c>
       <c r="C93">
@@ -4111,10 +4120,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="148" t="s">
-        <v>161</v>
-      </c>
-      <c r="B94" s="149">
+      <c r="A94" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="147">
         <v>38538</v>
       </c>
       <c r="C94">
@@ -4125,10 +4134,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="148" t="s">
-        <v>162</v>
-      </c>
-      <c r="B95" s="149">
+      <c r="A95" s="146" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="147">
         <v>2012453</v>
       </c>
       <c r="C95">
@@ -4139,10 +4148,10 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="148" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" s="149">
+      <c r="A96" s="146" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" s="147">
         <v>2226975</v>
       </c>
       <c r="C96">
@@ -4153,10 +4162,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="148" t="s">
-        <v>164</v>
-      </c>
-      <c r="B97" s="149">
+      <c r="A97" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="147">
         <v>2144108</v>
       </c>
       <c r="C97">
@@ -4167,10 +4176,10 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="148" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" s="149">
+      <c r="A98" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="147">
         <v>1037979</v>
       </c>
       <c r="C98">
@@ -4181,10 +4190,10 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="149">
+      <c r="A99" s="146" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" s="147">
         <v>2446505</v>
       </c>
       <c r="C99">
@@ -4195,10 +4204,10 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="B100" s="149">
+      <c r="A100" s="146" t="s">
+        <v>164</v>
+      </c>
+      <c r="B100" s="147">
         <v>607425</v>
       </c>
       <c r="C100">
@@ -4209,10 +4218,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="148" t="s">
-        <v>168</v>
-      </c>
-      <c r="B101" s="149">
+      <c r="A101" s="146" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="147">
         <v>1306827</v>
       </c>
       <c r="C101">
@@ -4223,10 +4232,10 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="148" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102" s="149">
+      <c r="A102" s="146" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="147">
         <v>2692584</v>
       </c>
       <c r="C102">
@@ -4237,10 +4246,10 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="148" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103" s="149">
+      <c r="A103" s="146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="147">
         <v>1492888</v>
       </c>
       <c r="C103">
@@ -4251,10 +4260,10 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="148" t="s">
-        <v>171</v>
-      </c>
-      <c r="B104" s="149">
+      <c r="A104" s="146" t="s">
+        <v>168</v>
+      </c>
+      <c r="B104" s="147">
         <v>308327</v>
       </c>
       <c r="C104">
@@ -4265,10 +4274,10 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="B105" s="149">
+      <c r="A105" s="146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" s="147">
         <v>347288</v>
       </c>
       <c r="C105">
@@ -4279,10 +4288,10 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="148" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" s="149">
+      <c r="A106" s="146" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" s="147">
         <v>1116387</v>
       </c>
       <c r="C106">
@@ -4293,10 +4302,10 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="148" t="s">
-        <v>174</v>
-      </c>
-      <c r="B107" s="149">
+      <c r="A107" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="B107" s="147">
         <v>6863789</v>
       </c>
       <c r="C107">
@@ -4307,10 +4316,10 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="148" t="s">
-        <v>175</v>
-      </c>
-      <c r="B108" s="149">
+      <c r="A108" s="146" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="147">
         <v>4141023</v>
       </c>
       <c r="C108">
@@ -4321,10 +4330,10 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="148" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="149">
+      <c r="A109" s="146" t="s">
+        <v>173</v>
+      </c>
+      <c r="B109" s="147">
         <v>13270264</v>
       </c>
       <c r="C109">
@@ -4335,10 +4344,10 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="148" t="s">
-        <v>177</v>
-      </c>
-      <c r="B110" s="149">
+      <c r="A110" s="146" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110" s="147">
         <v>140459</v>
       </c>
       <c r="C110">
@@ -4349,10 +4358,10 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="B111" s="149">
+      <c r="A111" s="146" t="s">
+        <v>175</v>
+      </c>
+      <c r="B111" s="147">
         <v>4343219</v>
       </c>
       <c r="C111">
@@ -4363,10 +4372,10 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="148" t="s">
-        <v>179</v>
-      </c>
-      <c r="B112" s="149">
+      <c r="A112" s="146" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="147">
         <v>225879</v>
       </c>
       <c r="C112">
@@ -4377,10 +4386,10 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="148" t="s">
-        <v>180</v>
-      </c>
-      <c r="B113" s="149">
+      <c r="A113" s="146" t="s">
+        <v>177</v>
+      </c>
+      <c r="B113" s="147">
         <v>1252071</v>
       </c>
       <c r="C113">
@@ -4391,10 +4400,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="148" t="s">
-        <v>181</v>
-      </c>
-      <c r="B114" s="149">
+      <c r="A114" s="146" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" s="147">
         <v>658995</v>
       </c>
       <c r="C114">
@@ -4405,10 +4414,10 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="148" t="s">
-        <v>182</v>
-      </c>
-      <c r="B115" s="149">
+      <c r="A115" s="146" t="s">
+        <v>179</v>
+      </c>
+      <c r="B115" s="147">
         <v>52649824</v>
       </c>
       <c r="C115">
@@ -4419,10 +4428,10 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="148" t="s">
-        <v>183</v>
-      </c>
-      <c r="B116" s="149">
+      <c r="A116" s="146" t="s">
+        <v>180</v>
+      </c>
+      <c r="B116" s="147">
         <v>2144482</v>
       </c>
       <c r="C116">
@@ -4433,10 +4442,10 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="148" t="s">
-        <v>184</v>
-      </c>
-      <c r="B117" s="149">
+      <c r="A117" s="146" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="147">
         <v>1238490</v>
       </c>
       <c r="C117">
@@ -4447,10 +4456,10 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="148" t="s">
-        <v>185</v>
-      </c>
-      <c r="B118" s="149">
+      <c r="A118" s="146" t="s">
+        <v>182</v>
+      </c>
+      <c r="B118" s="147">
         <v>324337</v>
       </c>
       <c r="C118">
@@ -4461,10 +4470,10 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="148" t="s">
-        <v>186</v>
-      </c>
-      <c r="B119" s="149">
+      <c r="A119" s="146" t="s">
+        <v>183</v>
+      </c>
+      <c r="B119" s="147">
         <v>14584119</v>
       </c>
       <c r="C119">
@@ -4475,10 +4484,10 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" s="149">
+      <c r="A120" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="B120" s="147">
         <v>7104990</v>
       </c>
       <c r="C120">
@@ -4489,10 +4498,10 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B121" s="149">
+      <c r="A121" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="B121" s="147">
         <v>773988</v>
       </c>
       <c r="C121">
@@ -4503,10 +4512,10 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="148" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" s="149">
+      <c r="A122" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B122" s="147">
         <v>10032271</v>
       </c>
       <c r="C122">
@@ -4517,10 +4526,10 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="B123" s="149">
+      <c r="A123" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="B123" s="147">
         <v>9050266</v>
       </c>
       <c r="C123">
@@ -4531,10 +4540,10 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="148" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="149">
+      <c r="A124" s="146" t="s">
+        <v>188</v>
+      </c>
+      <c r="B124" s="147">
         <v>125207</v>
       </c>
       <c r="C124">
@@ -4545,10 +4554,10 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="148" t="s">
-        <v>192</v>
-      </c>
-      <c r="B125" s="149">
+      <c r="A125" s="146" t="s">
+        <v>189</v>
+      </c>
+      <c r="B125" s="147">
         <v>2256063</v>
       </c>
       <c r="C125">
@@ -4559,10 +4568,10 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="148" t="s">
-        <v>193</v>
-      </c>
-      <c r="B126" s="149">
+      <c r="A126" s="146" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" s="147">
         <v>2282569</v>
       </c>
       <c r="C126">
@@ -4573,10 +4582,10 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="148" t="s">
-        <v>194</v>
-      </c>
-      <c r="B127" s="149">
+      <c r="A127" s="146" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" s="147">
         <v>4811710</v>
       </c>
       <c r="C127">
@@ -4587,10 +4596,10 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="148" t="s">
-        <v>195</v>
-      </c>
-      <c r="B128" s="149">
+      <c r="A128" s="146" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="147">
         <v>51068452</v>
       </c>
       <c r="C128">
@@ -4601,10 +4610,10 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="148" t="s">
-        <v>196</v>
-      </c>
-      <c r="B129" s="149">
+      <c r="A129" s="146" t="s">
+        <v>193</v>
+      </c>
+      <c r="B129" s="147">
         <v>12477221</v>
       </c>
       <c r="C129">
@@ -4615,10 +4624,10 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="148" t="s">
-        <v>197</v>
-      </c>
-      <c r="B130" s="149">
+      <c r="A130" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="B130" s="147">
         <v>2684446</v>
       </c>
       <c r="C130">
@@ -4629,10 +4638,10 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="148" t="s">
-        <v>198</v>
-      </c>
-      <c r="B131" s="149">
+      <c r="A131" s="146" t="s">
+        <v>195</v>
+      </c>
+      <c r="B131" s="147">
         <v>2028410</v>
       </c>
       <c r="C131">
@@ -4643,10 +4652,10 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="148" t="s">
-        <v>199</v>
-      </c>
-      <c r="B132" s="149">
+      <c r="A132" s="146" t="s">
+        <v>196</v>
+      </c>
+      <c r="B132" s="147">
         <v>63098158</v>
       </c>
       <c r="C132">
@@ -4657,10 +4666,10 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" s="149">
+      <c r="A133" s="146" t="s">
+        <v>197</v>
+      </c>
+      <c r="B133" s="147">
         <v>1685593</v>
       </c>
       <c r="C133">
@@ -4671,10 +4680,10 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="B134" s="149">
+      <c r="A134" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="147">
         <v>2560672</v>
       </c>
       <c r="C134">
@@ -4685,10 +4694,10 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="148" t="s">
-        <v>202</v>
-      </c>
-      <c r="B135" s="149">
+      <c r="A135" s="146" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" s="147">
         <v>2441919</v>
       </c>
       <c r="C135">
@@ -4699,10 +4708,10 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="B136" s="149">
+      <c r="A136" s="146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" s="147">
         <v>12928630</v>
       </c>
       <c r="C136">
@@ -4713,10 +4722,10 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="B137" s="149">
+      <c r="A137" s="146" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" s="147">
         <v>37976672</v>
       </c>
       <c r="C137">
@@ -4727,10 +4736,10 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="148" t="s">
-        <v>205</v>
-      </c>
-      <c r="B138" s="149">
+      <c r="A138" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="B138" s="147">
         <v>21519587</v>
       </c>
       <c r="C138">
@@ -4741,10 +4750,10 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="148" t="s">
-        <v>206</v>
-      </c>
-      <c r="B139" s="149">
+      <c r="A139" s="146" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" s="147">
         <v>5691681</v>
       </c>
       <c r="C139">
@@ -4755,10 +4764,10 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="148" t="s">
-        <v>207</v>
-      </c>
-      <c r="B140" s="149">
+      <c r="A140" s="146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B140" s="147">
         <v>1807598</v>
       </c>
       <c r="C140">
@@ -4769,10 +4778,10 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="148" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="149">
+      <c r="A141" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="B141" s="147">
         <v>1154042</v>
       </c>
       <c r="C141">
@@ -4783,10 +4792,10 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="148" t="s">
-        <v>209</v>
-      </c>
-      <c r="B142" s="149">
+      <c r="A142" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="B142" s="147">
         <v>10861099</v>
       </c>
       <c r="C142">
@@ -4797,10 +4806,10 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="148" t="s">
-        <v>210</v>
-      </c>
-      <c r="B143" s="149">
+      <c r="A143" s="146" t="s">
+        <v>207</v>
+      </c>
+      <c r="B143" s="147">
         <v>78239383</v>
       </c>
       <c r="C143">
@@ -4811,10 +4820,10 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="148" t="s">
-        <v>211</v>
-      </c>
-      <c r="B144" s="149">
+      <c r="A144" s="146" t="s">
+        <v>208</v>
+      </c>
+      <c r="B144" s="147">
         <v>3315948</v>
       </c>
       <c r="C144">
@@ -4825,10 +4834,10 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="148" t="s">
-        <v>212</v>
-      </c>
-      <c r="B145" s="149">
+      <c r="A145" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="B145" s="147">
         <v>84561</v>
       </c>
       <c r="C145">
@@ -4839,10 +4848,10 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="148" t="s">
-        <v>213</v>
-      </c>
-      <c r="B146" s="149">
+      <c r="A146" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="B146" s="147">
         <v>49135</v>
       </c>
       <c r="C146">
@@ -4853,10 +4862,10 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="148" t="s">
-        <v>214</v>
-      </c>
-      <c r="B147" s="149">
+      <c r="A147" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="B147" s="147">
         <v>64569</v>
       </c>
       <c r="C147">
@@ -4867,10 +4876,10 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="148" t="s">
-        <v>215</v>
-      </c>
-      <c r="B148" s="149">
+      <c r="A148" s="146" t="s">
+        <v>212</v>
+      </c>
+      <c r="B148" s="147">
         <v>52190</v>
       </c>
       <c r="C148">
@@ -4881,10 +4890,10 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="148" t="s">
-        <v>216</v>
-      </c>
-      <c r="B149" s="149">
+      <c r="A149" s="146" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" s="147">
         <v>14300262</v>
       </c>
       <c r="C149">
@@ -4895,10 +4904,10 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="148" t="s">
-        <v>217</v>
-      </c>
-      <c r="B150" s="149">
+      <c r="A150" s="146" t="s">
+        <v>214</v>
+      </c>
+      <c r="B150" s="147">
         <v>4064706</v>
       </c>
       <c r="C150">
@@ -4909,10 +4918,10 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="148" t="s">
-        <v>218</v>
-      </c>
-      <c r="B151" s="149">
+      <c r="A151" s="146" t="s">
+        <v>215</v>
+      </c>
+      <c r="B151" s="147">
         <v>4730407</v>
       </c>
       <c r="C151">
@@ -4923,10 +4932,10 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="148" t="s">
-        <v>219</v>
-      </c>
-      <c r="B152" s="149">
+      <c r="A152" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="147">
         <v>47600</v>
       </c>
       <c r="C152">
@@ -4937,10 +4946,10 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="148" t="s">
-        <v>220</v>
-      </c>
-      <c r="B153" s="149">
+      <c r="A153" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="B153" s="147">
         <v>1824011</v>
       </c>
       <c r="C153">
@@ -4951,10 +4960,10 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="148" t="s">
-        <v>221</v>
-      </c>
-      <c r="B154" s="149">
+      <c r="A154" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="B154" s="147">
         <v>3237710</v>
       </c>
       <c r="C154">
@@ -4965,10 +4974,10 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="148" t="s">
-        <v>222</v>
-      </c>
-      <c r="B155" s="149">
+      <c r="A155" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="B155" s="147">
         <v>3059176</v>
       </c>
       <c r="C155">
@@ -4979,10 +4988,10 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="148" t="s">
-        <v>223</v>
-      </c>
-      <c r="B156" s="149">
+      <c r="A156" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" s="147">
         <v>1162317</v>
       </c>
       <c r="C156">
@@ -4993,10 +5002,10 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="148" t="s">
-        <v>224</v>
-      </c>
-      <c r="B157" s="149">
+      <c r="A157" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="B157" s="147">
         <v>183167</v>
       </c>
       <c r="C157">
@@ -5007,10 +5016,10 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="148" t="s">
-        <v>225</v>
-      </c>
-      <c r="B158" s="149">
+      <c r="A158" s="146" t="s">
+        <v>222</v>
+      </c>
+      <c r="B158" s="147">
         <v>2669125</v>
       </c>
       <c r="C158">
@@ -5021,10 +5030,10 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="148" t="s">
-        <v>226</v>
-      </c>
-      <c r="B159" s="149">
+      <c r="A159" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="B159" s="147">
         <v>20931899</v>
       </c>
       <c r="C159">
@@ -5035,10 +5044,10 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="B160" s="149">
+      <c r="A160" s="146" t="s">
+        <v>224</v>
+      </c>
+      <c r="B160" s="147">
         <v>28715868</v>
       </c>
       <c r="C160">
@@ -5049,10 +5058,10 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="148" t="s">
-        <v>228</v>
-      </c>
-      <c r="B161" s="149">
+      <c r="A161" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="B161" s="147">
         <v>3418246</v>
       </c>
       <c r="C161">
@@ -5063,10 +5072,10 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="148" t="s">
-        <v>229</v>
-      </c>
-      <c r="B162" s="149">
+      <c r="A162" s="146" t="s">
+        <v>226</v>
+      </c>
+      <c r="B162" s="147">
         <v>26158266</v>
       </c>
       <c r="C162">
@@ -5077,10 +5086,10 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="148" t="s">
-        <v>230</v>
-      </c>
-      <c r="B163" s="149">
+      <c r="A163" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="B163" s="147">
         <v>9950827</v>
       </c>
       <c r="C163">
@@ -5091,10 +5100,10 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="148" t="s">
-        <v>231</v>
-      </c>
-      <c r="B164" s="149">
+      <c r="A164" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="B164" s="147">
         <v>12004972</v>
       </c>
       <c r="C164">
@@ -5105,10 +5114,10 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="B165" s="149">
+      <c r="A165" s="146" t="s">
+        <v>229</v>
+      </c>
+      <c r="B165" s="147">
         <v>237958</v>
       </c>
       <c r="C165">
@@ -5119,10 +5128,10 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="148" t="s">
-        <v>233</v>
-      </c>
-      <c r="B166" s="149">
+      <c r="A166" s="146" t="s">
+        <v>230</v>
+      </c>
+      <c r="B166" s="147">
         <v>4918210</v>
       </c>
       <c r="C166">
@@ -5133,10 +5142,10 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="148" t="s">
-        <v>234</v>
-      </c>
-      <c r="B167" s="149">
+      <c r="A167" s="146" t="s">
+        <v>231</v>
+      </c>
+      <c r="B167" s="147">
         <v>4518615</v>
       </c>
       <c r="C167">
@@ -5147,10 +5156,10 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="148" t="s">
-        <v>235</v>
-      </c>
-      <c r="B168" s="149">
+      <c r="A168" s="146" t="s">
+        <v>232</v>
+      </c>
+      <c r="B168" s="147">
         <v>6085585</v>
       </c>
       <c r="C168">
@@ -5161,10 +5170,10 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="148" t="s">
-        <v>236</v>
-      </c>
-      <c r="B169" s="149">
+      <c r="A169" s="146" t="s">
+        <v>233</v>
+      </c>
+      <c r="B169" s="147">
         <v>13539701</v>
       </c>
       <c r="C169">
@@ -5175,10 +5184,10 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="148" t="s">
-        <v>237</v>
-      </c>
-      <c r="B170" s="149">
+      <c r="A170" s="146" t="s">
+        <v>234</v>
+      </c>
+      <c r="B170" s="147">
         <v>2797823</v>
       </c>
       <c r="C170">
@@ -5189,10 +5198,10 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="148" t="s">
-        <v>238</v>
-      </c>
-      <c r="B171" s="149">
+      <c r="A171" s="146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B171" s="147">
         <v>14004347</v>
       </c>
       <c r="C171">
@@ -5203,10 +5212,10 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="148" t="s">
-        <v>239</v>
-      </c>
-      <c r="B172" s="149">
+      <c r="A172" s="146" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" s="147">
         <v>37728597</v>
       </c>
       <c r="C172">
@@ -5217,10 +5226,10 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="148" t="s">
-        <v>240</v>
-      </c>
-      <c r="B173" s="149">
+      <c r="A173" s="146" t="s">
+        <v>237</v>
+      </c>
+      <c r="B173" s="147">
         <v>331218</v>
       </c>
       <c r="C173">
@@ -5231,10 +5240,10 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="148" t="s">
-        <v>241</v>
-      </c>
-      <c r="B174" s="149">
+      <c r="A174" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="B174" s="147">
         <v>2088857</v>
       </c>
       <c r="C174">
@@ -5245,10 +5254,10 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="148" t="s">
-        <v>242</v>
-      </c>
-      <c r="B175" s="149">
+      <c r="A175" s="146" t="s">
+        <v>239</v>
+      </c>
+      <c r="B175" s="147">
         <v>34943</v>
       </c>
       <c r="C175">
@@ -5259,10 +5268,10 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="148" t="s">
-        <v>243</v>
-      </c>
-      <c r="B176" s="149">
+      <c r="A176" s="146" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" s="147">
         <v>699011</v>
       </c>
       <c r="C176">
@@ -5273,10 +5282,10 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="148" t="s">
-        <v>244</v>
-      </c>
-      <c r="B177" s="149">
+      <c r="A177" s="146" t="s">
+        <v>241</v>
+      </c>
+      <c r="B177" s="147">
         <v>5283180</v>
       </c>
       <c r="C177">
@@ -5287,10 +5296,10 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="148" t="s">
-        <v>245</v>
-      </c>
-      <c r="B178" s="149">
+      <c r="A178" s="146" t="s">
+        <v>242</v>
+      </c>
+      <c r="B178" s="147">
         <v>35176270</v>
       </c>
       <c r="C178">
@@ -5301,10 +5310,10 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="148" t="s">
-        <v>246</v>
-      </c>
-      <c r="B179" s="149">
+      <c r="A179" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="B179" s="147">
         <v>2163412</v>
       </c>
       <c r="C179">
@@ -5315,10 +5324,10 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="148" t="s">
-        <v>247</v>
-      </c>
-      <c r="B180" s="149">
+      <c r="A180" s="146" t="s">
+        <v>244</v>
+      </c>
+      <c r="B180" s="147">
         <v>8850820</v>
       </c>
       <c r="C180">
@@ -5329,10 +5338,10 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="148" t="s">
-        <v>248</v>
-      </c>
-      <c r="B181" s="149">
+      <c r="A181" s="146" t="s">
+        <v>245</v>
+      </c>
+      <c r="B181" s="147">
         <v>24593547</v>
       </c>
       <c r="C181">
@@ -5343,10 +5352,10 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="148" t="s">
-        <v>249</v>
-      </c>
-      <c r="B182" s="149">
+      <c r="A182" s="146" t="s">
+        <v>246</v>
+      </c>
+      <c r="B182" s="147">
         <v>5433364</v>
       </c>
       <c r="C182">
@@ -5357,10 +5366,10 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="148" t="s">
-        <v>250</v>
-      </c>
-      <c r="B183" s="149">
+      <c r="A183" s="146" t="s">
+        <v>247</v>
+      </c>
+      <c r="B183" s="147">
         <v>32936962</v>
       </c>
       <c r="C183">
@@ -5371,10 +5380,10 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="148" t="s">
-        <v>251</v>
-      </c>
-      <c r="B184" s="149">
+      <c r="A184" s="146" t="s">
+        <v>248</v>
+      </c>
+      <c r="B184" s="147">
         <v>163246772</v>
       </c>
       <c r="C184">
@@ -5385,10 +5394,10 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="148" t="s">
-        <v>252</v>
-      </c>
-      <c r="B185" s="149">
+      <c r="A185" s="146" t="s">
+        <v>249</v>
+      </c>
+      <c r="B185" s="147">
         <v>1578418</v>
       </c>
       <c r="C185">
@@ -5399,10 +5408,10 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="148" t="s">
-        <v>253</v>
-      </c>
-      <c r="B186" s="149">
+      <c r="A186" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="B186" s="147">
         <v>11817125</v>
       </c>
       <c r="C186">
@@ -5413,10 +5422,10 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="148" t="s">
-        <v>254</v>
-      </c>
-      <c r="B187" s="149">
+      <c r="A187" s="146" t="s">
+        <v>251</v>
+      </c>
+      <c r="B187" s="147">
         <v>89478</v>
       </c>
       <c r="C187">
@@ -5427,10 +5436,10 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="148" t="s">
-        <v>255</v>
-      </c>
-      <c r="B188" s="149">
+      <c r="A188" s="146" t="s">
+        <v>252</v>
+      </c>
+      <c r="B188" s="147">
         <v>12968894</v>
       </c>
       <c r="C188">
@@ -5441,10 +5450,10 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="B189" s="149">
+      <c r="A189" s="146" t="s">
+        <v>253</v>
+      </c>
+      <c r="B189" s="147">
         <v>43025626</v>
       </c>
       <c r="C189">
@@ -5455,10 +5464,10 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="148" t="s">
-        <v>257</v>
-      </c>
-      <c r="B190" s="149">
+      <c r="A190" s="146" t="s">
+        <v>254</v>
+      </c>
+      <c r="B190" s="147">
         <v>53922</v>
       </c>
       <c r="C190">
@@ -5469,10 +5478,10 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="148" t="s">
-        <v>258</v>
-      </c>
-      <c r="B191" s="149">
+      <c r="A191" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="B191" s="147">
         <v>271213</v>
       </c>
       <c r="C191">
@@ -5483,10 +5492,10 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="148" t="s">
-        <v>259</v>
-      </c>
-      <c r="B192" s="149">
+      <c r="A192" s="146" t="s">
+        <v>256</v>
+      </c>
+      <c r="B192" s="147">
         <v>7284023</v>
       </c>
       <c r="C192">
@@ -5497,10 +5506,10 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="148" t="s">
-        <v>260</v>
-      </c>
-      <c r="B193" s="149">
+      <c r="A193" s="146" t="s">
+        <v>257</v>
+      </c>
+      <c r="B193" s="147">
         <v>3950721</v>
       </c>
       <c r="C193">
@@ -5511,10 +5520,10 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="148" t="s">
-        <v>261</v>
-      </c>
-      <c r="B194" s="149">
+      <c r="A194" s="146" t="s">
+        <v>258</v>
+      </c>
+      <c r="B194" s="147">
         <v>4064530</v>
       </c>
       <c r="C194">
@@ -5531,10 +5540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E747F0-61B8-2B41-8FF5-3208726A1C4B}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C5:C6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5543,332 +5552,397 @@
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="151" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" t="s">
         <v>269</v>
       </c>
-      <c r="E1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" t="s">
-        <v>274</v>
-      </c>
-      <c r="K1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="151">
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="150">
+        <v>1</v>
+      </c>
+      <c r="H2" s="149">
         <v>1.54</v>
       </c>
-      <c r="G2" s="10">
+      <c r="I2" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H2" s="10">
+      <c r="J2" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1023</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="151">
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" s="150">
+        <v>1</v>
+      </c>
+      <c r="H3" s="149">
         <v>2.96</v>
       </c>
-      <c r="G3" s="10">
+      <c r="I3" s="10">
         <v>0.22700000000000001</v>
       </c>
-      <c r="H3" s="10">
+      <c r="J3" s="10">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1029</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="151">
+        <v>267</v>
+      </c>
+      <c r="E4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="150">
+        <v>1</v>
+      </c>
+      <c r="H4" s="149">
         <v>1.4</v>
       </c>
-      <c r="G4" s="10">
+      <c r="I4" s="10">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="J4" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="K4" s="9">
         <v>5718</v>
       </c>
-      <c r="J4" s="9">
+      <c r="L4" s="9">
         <v>4581</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>669</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5">
+        <v>267</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="151">
+        <v>0.12380952380952399</v>
+      </c>
+      <c r="G5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="10">
+      <c r="H5" s="149"/>
+      <c r="I5" s="10">
         <v>0.20699999999999999</v>
       </c>
-      <c r="H5" s="10">
+      <c r="J5" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>307</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>242</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>998</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6">
+        <v>267</v>
+      </c>
+      <c r="E6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="150">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1.59</v>
       </c>
-      <c r="F6" s="151"/>
-      <c r="G6" s="10">
+      <c r="H6" s="149"/>
+      <c r="I6" s="10">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H6" s="10">
+      <c r="J6" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>797</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>976</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="151">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="150">
+        <v>1</v>
+      </c>
+      <c r="H7" s="149">
         <v>1.63</v>
       </c>
-      <c r="G7" s="10">
+      <c r="I7" s="10">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H7" s="10">
+      <c r="J7" s="10">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="K7" s="9">
         <v>3866</v>
       </c>
-      <c r="K7" s="9">
+      <c r="M7" s="9">
         <v>4352</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>619</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="151">
+        <v>2.0625</v>
+      </c>
+      <c r="G8">
         <v>2.39</v>
       </c>
-      <c r="F8" s="151"/>
-      <c r="G8" s="10">
+      <c r="H8" s="149"/>
+      <c r="I8" s="10">
         <v>0.16400000000000001</v>
       </c>
-      <c r="H8" s="10">
+      <c r="J8" s="10">
         <v>0.33</v>
       </c>
-      <c r="I8" s="9">
+      <c r="K8" s="9">
         <v>1900</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>619</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="151">
+        <v>2.0625</v>
+      </c>
+      <c r="G9">
         <v>3.42</v>
       </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="10">
+      <c r="H9" s="149"/>
+      <c r="I9" s="10">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H9" s="10">
+      <c r="J9" s="10">
         <v>0.33</v>
       </c>
-      <c r="I9" s="9">
+      <c r="K9" s="9">
         <v>1900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>594</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>267</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
       </c>
       <c r="F10" s="151">
+        <v>0.73475385745775201</v>
+      </c>
+      <c r="H10" s="149">
         <v>1.82</v>
       </c>
-      <c r="G10" s="10">
+      <c r="I10" s="10">
         <v>0.22800000000000001</v>
       </c>
-      <c r="H10" s="10">
+      <c r="J10" s="10">
         <v>0.1</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>585</v>
-      </c>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="151">
+        <v>267</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="150">
+        <v>1</v>
+      </c>
+      <c r="H11" s="149">
         <v>2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="I11" s="10">
         <v>0.153</v>
       </c>
-      <c r="H11" s="10">
+      <c r="J11" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>761</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>494</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -5876,1060 +5950,1160 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="151">
+      <c r="E12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="150">
+        <v>1</v>
+      </c>
+      <c r="H12" s="149">
         <v>2.15</v>
       </c>
-      <c r="G12" s="10">
+      <c r="I12" s="10">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H12" s="10">
+      <c r="J12" s="10">
         <v>2E-3</v>
       </c>
-      <c r="I12" s="9">
+      <c r="K12" s="9">
         <v>13452</v>
       </c>
-      <c r="J12" s="9">
+      <c r="L12" s="9">
         <v>8490</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>907</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>670</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
-      </c>
-      <c r="E13">
+        <v>267</v>
+      </c>
+      <c r="E13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="150">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>1.24</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="10">
+      <c r="H13" s="149"/>
+      <c r="I13" s="10">
         <v>0.06</v>
       </c>
-      <c r="H13" s="10">
+      <c r="J13" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>985</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14">
+        <v>267</v>
+      </c>
+      <c r="E14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="150">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>2.84</v>
       </c>
-      <c r="F14" s="151"/>
-      <c r="G14" s="10">
+      <c r="H14" s="149"/>
+      <c r="I14" s="10">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H14" s="10">
+      <c r="J14" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="150">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>1.18</v>
       </c>
-      <c r="F15" s="151"/>
-      <c r="G15" s="10">
+      <c r="H15" s="149"/>
+      <c r="I15" s="10">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H15" s="10">
+      <c r="J15" s="10">
         <v>0.30299999999999999</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="150">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>1.32</v>
       </c>
-      <c r="F16" s="151"/>
-      <c r="G16" s="10">
+      <c r="H16" s="149"/>
+      <c r="I16" s="10">
         <v>2.4E-2</v>
       </c>
-      <c r="H16" s="10">
+      <c r="J16" s="10">
         <v>0.30299999999999999</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="150">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>1.56</v>
       </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="10">
+      <c r="H17" s="149"/>
+      <c r="I17" s="10">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H17" s="10">
+      <c r="J17" s="10">
         <v>0.30299999999999999</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>493</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="151">
+      <c r="E18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="150">
+        <v>1</v>
+      </c>
+      <c r="H18" s="149">
         <v>1.38</v>
       </c>
-      <c r="G18" s="10">
+      <c r="I18" s="10">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="H18" s="10">
+      <c r="J18" s="10">
         <v>0.05</v>
       </c>
-      <c r="I18" s="9">
+      <c r="K18" s="9">
         <v>1496</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>348</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>493</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="151">
+      <c r="E19" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="150">
+        <v>1</v>
+      </c>
+      <c r="H19" s="149">
         <v>1.63</v>
       </c>
-      <c r="G19" s="10">
+      <c r="I19" s="10">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="H19" s="10">
+      <c r="J19" s="10">
         <v>0.05</v>
       </c>
-      <c r="I19" s="9">
+      <c r="K19" s="9">
         <v>1496</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>348</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>458</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="150">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>1.6</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="10">
+      <c r="H20" s="149"/>
+      <c r="I20" s="10">
         <v>0.13900000000000001</v>
       </c>
-      <c r="H20" s="10">
+      <c r="J20" s="10">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="I20" s="9">
+      <c r="K20" s="9">
         <v>38064</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="150">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>4.43</v>
       </c>
-      <c r="F21" s="151"/>
-      <c r="G21" s="10">
+      <c r="H21" s="149"/>
+      <c r="I21" s="10">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H21" s="10">
+      <c r="J21" s="10">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="I21" s="9">
+      <c r="K21" s="9">
         <v>38064</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1028</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>270</v>
-      </c>
-      <c r="E22">
+        <v>267</v>
+      </c>
+      <c r="E22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="150">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>2.34</v>
       </c>
-      <c r="F22" s="151"/>
-      <c r="G22" s="10">
+      <c r="H22" s="149"/>
+      <c r="I22" s="10">
         <v>0.19900000000000001</v>
       </c>
-      <c r="H22" s="10">
+      <c r="J22" s="10">
         <v>0.20499999999999999</v>
       </c>
-      <c r="I22" s="9">
+      <c r="K22" s="9">
         <v>1197</v>
       </c>
-      <c r="K22" s="9">
+      <c r="M22" s="9">
         <v>4424</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>536</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E23">
+        <v>267</v>
+      </c>
+      <c r="E23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="151">
+        <v>0.51257712387280496</v>
+      </c>
+      <c r="G23">
         <v>1.53</v>
       </c>
-      <c r="F23" s="151"/>
-      <c r="G23" s="10">
+      <c r="H23" s="149"/>
+      <c r="I23" s="10">
         <v>0.11</v>
       </c>
-      <c r="H23" s="10">
+      <c r="J23" s="10">
         <v>0.108</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>308</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>369</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
-      </c>
-      <c r="F24" s="151">
+        <v>267</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="150">
+        <v>1</v>
+      </c>
+      <c r="H24" s="149">
         <v>1.96</v>
       </c>
-      <c r="G24" s="10">
+      <c r="I24" s="10">
         <v>0.14699999999999999</v>
       </c>
-      <c r="H24" s="10">
+      <c r="J24" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I24" s="9">
+      <c r="K24" s="9">
         <v>4668</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>381</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
-      </c>
-      <c r="F25" s="151">
+        <v>267</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="150">
+        <v>1</v>
+      </c>
+      <c r="H25" s="149">
         <v>1.9</v>
       </c>
-      <c r="G25" s="10">
+      <c r="I25" s="10">
         <v>0.13900000000000001</v>
       </c>
-      <c r="H25" s="10">
+      <c r="J25" s="10">
         <v>1E-3</v>
       </c>
-      <c r="I25" s="9">
+      <c r="K25" s="9">
         <v>9025</v>
       </c>
-      <c r="K25" s="9">
+      <c r="M25" s="9">
         <v>9782</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>272</v>
-      </c>
-      <c r="F26" s="151">
+        <v>267</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="150">
+        <v>1</v>
+      </c>
+      <c r="H26" s="149">
         <v>1.87</v>
       </c>
-      <c r="G26" s="10">
+      <c r="I26" s="10">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H26" s="10">
+      <c r="J26" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I26" s="9">
+      <c r="K26" s="9">
         <v>2515</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>943</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>693</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27">
+        <v>267</v>
+      </c>
+      <c r="E27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" s="150">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F27" s="151"/>
-      <c r="G27" s="10">
+      <c r="H27" s="149"/>
+      <c r="I27" s="10">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="H27" s="10">
+      <c r="J27" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I27" s="9">
+      <c r="K27" s="9">
         <v>9348</v>
       </c>
-      <c r="K27" s="9">
+      <c r="M27" s="9">
         <v>23834</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
-      </c>
-      <c r="E28">
+        <v>267</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="150">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>1.78</v>
       </c>
-      <c r="F28" s="151"/>
-      <c r="G28" s="10">
+      <c r="H28" s="149"/>
+      <c r="I28" s="10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="H28" s="10">
+      <c r="J28" s="10">
         <v>1E-3</v>
       </c>
-      <c r="I28" s="9">
+      <c r="K28" s="9">
         <v>9348</v>
       </c>
-      <c r="K28" s="9">
+      <c r="M28" s="9">
         <v>23834</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E851A24-A892-DC49-9DB5-6CF2A523ED9A}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>263</v>
+        <v>279</v>
+      </c>
+      <c r="D1" s="151" t="s">
+        <v>277</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="H1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="151">
-        <v>1.54</v>
+        <v>275</v>
+      </c>
+      <c r="D2" s="150">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F2" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G2" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1023</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="151">
-        <v>2.96</v>
+        <v>276</v>
+      </c>
+      <c r="D3" s="150">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.22700000000000001</v>
       </c>
       <c r="F3" s="10">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="G3" s="10">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1029</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="151">
-        <v>1.4</v>
+      <c r="D4" s="150">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F4" s="10">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G4" s="10">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="G4" s="9">
+        <v>5718</v>
+      </c>
       <c r="H4" s="9">
-        <v>5718</v>
-      </c>
-      <c r="I4" s="9">
         <v>4581</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>669</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E5" s="151"/>
+        <v>273</v>
+      </c>
+      <c r="D5" s="151">
+        <v>0.12380952380952399</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.20699999999999999</v>
+      </c>
       <c r="F5" s="10">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="G5" s="10">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="G5">
+        <v>307</v>
+      </c>
       <c r="H5">
-        <v>307</v>
+        <v>242</v>
       </c>
       <c r="I5">
-        <v>242</v>
-      </c>
-      <c r="J5">
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>998</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6">
-        <v>1.59</v>
-      </c>
-      <c r="E6" s="151"/>
+        <v>274</v>
+      </c>
+      <c r="D6" s="150">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="F6" s="10">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="G6" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>797</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>976</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="151">
-        <v>1.63</v>
+      <c r="D7" s="150">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.14499999999999999</v>
       </c>
       <c r="F7" s="10">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="G7" s="10">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H7" s="9">
+      <c r="G7" s="9">
         <v>3866</v>
       </c>
-      <c r="J7" s="9">
+      <c r="I7" s="9">
         <v>4352</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>619</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D8">
-        <v>2.39</v>
-      </c>
-      <c r="E8" s="151"/>
+        <v>262</v>
+      </c>
+      <c r="D8" s="151">
+        <v>2.0625</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.16400000000000001</v>
+      </c>
       <c r="F8" s="10">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="G8" s="10">
         <v>0.33</v>
       </c>
-      <c r="H8" s="9">
+      <c r="G8" s="9">
         <v>1900</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>594</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="151">
-        <v>1.82</v>
+      <c r="D9" s="151">
+        <v>0.73475385745775201</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.22800000000000001</v>
       </c>
       <c r="F9" s="10">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="G9" s="10">
         <v>0.1</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>585</v>
-      </c>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="151">
-        <v>2</v>
+      <c r="D10" s="151">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.153</v>
       </c>
       <c r="F10" s="10">
-        <v>0.153</v>
-      </c>
-      <c r="G10" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <v>761</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>494</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="151">
-        <v>2.15</v>
+      <c r="D11" s="150">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.14699999999999999</v>
       </c>
       <c r="F11" s="10">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="G11" s="10">
         <v>2E-3</v>
       </c>
+      <c r="G11" s="9">
+        <v>13452</v>
+      </c>
       <c r="H11" s="9">
-        <v>13452</v>
-      </c>
-      <c r="I11" s="9">
         <v>8490</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <v>907</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>670</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>1.24</v>
-      </c>
-      <c r="E12" s="151"/>
+      <c r="D12" s="150">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.06</v>
+      </c>
       <c r="F12" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="G12" s="10">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H12">
+      <c r="G12">
         <v>985</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
-        <v>2.84</v>
-      </c>
-      <c r="E13" s="151"/>
+      <c r="D13" s="150">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="F13" s="10">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G13" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="H13">
+      <c r="G13">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14">
-        <v>1.18</v>
-      </c>
-      <c r="E14" s="151"/>
+        <v>263</v>
+      </c>
+      <c r="D14" s="150">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="F14" s="10">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G14" s="10">
         <v>0.30299999999999999</v>
       </c>
-      <c r="H14">
+      <c r="G14">
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>493</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="151">
-        <v>1.38</v>
+        <v>264</v>
+      </c>
+      <c r="D15" s="150">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F15" s="10">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G15" s="10">
         <v>0.05</v>
       </c>
-      <c r="H15" s="9">
+      <c r="G15" s="9">
         <v>1496</v>
       </c>
+      <c r="H15">
+        <v>348</v>
+      </c>
       <c r="I15">
-        <v>348</v>
-      </c>
-      <c r="J15">
         <v>458</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16">
-        <v>1.6</v>
-      </c>
-      <c r="E16" s="151"/>
+        <v>265</v>
+      </c>
+      <c r="D16" s="150">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.13900000000000001</v>
+      </c>
       <c r="F16" s="10">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="G16" s="10">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="H16" s="9">
+      <c r="G16" s="9">
         <v>38064</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1028</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17">
-        <v>2.34</v>
-      </c>
-      <c r="E17" s="151"/>
+      <c r="D17" s="150">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.19900000000000001</v>
+      </c>
       <c r="F17" s="10">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="G17" s="10">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H17" s="9">
+      <c r="G17" s="9">
         <v>1197</v>
       </c>
-      <c r="J17" s="9">
+      <c r="I17" s="9">
         <v>4424</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>536</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18">
-        <v>1.53</v>
-      </c>
-      <c r="E18" s="151"/>
+      <c r="D18" s="151">
+        <v>0.51257712387280496</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.11</v>
+      </c>
       <c r="F18" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="G18" s="10">
         <v>0.108</v>
       </c>
-      <c r="H18">
+      <c r="G18">
         <v>308</v>
       </c>
-      <c r="J18">
+      <c r="I18">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>369</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="151">
-        <v>1.96</v>
+      <c r="D19" s="150">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.14699999999999999</v>
       </c>
       <c r="F19" s="10">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="G19" s="10">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="H19" s="9">
+      <c r="G19" s="9">
         <v>4668</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>381</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="151">
-        <v>1.9</v>
+      <c r="D20" s="150">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.13900000000000001</v>
       </c>
       <c r="F20" s="10">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="G20" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H20" s="9">
+      <c r="G20" s="9">
         <v>9025</v>
       </c>
-      <c r="J20" s="9">
+      <c r="I20" s="9">
         <v>9782</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="151">
-        <v>1.87</v>
+      <c r="D21" s="150">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.13500000000000001</v>
       </c>
       <c r="F21" s="10">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="G21" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="9">
+      <c r="G21" s="9">
         <v>2515</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>943</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>693</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D22">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="E22" s="151"/>
+      <c r="D22" s="150">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="F22" s="10">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G22" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H22" s="9">
+      <c r="G22" s="9">
         <v>9348</v>
       </c>
-      <c r="J22" s="9">
+      <c r="I22" s="9">
         <v>23834</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="D23">
-        <v>1.78</v>
-      </c>
-      <c r="E23" s="151"/>
+      <c r="D23" s="150">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="F23" s="10">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G23" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H23" s="9">
+      <c r="G23" s="9">
         <v>9348</v>
       </c>
-      <c r="J23" s="9">
+      <c r="I23" s="9">
         <v>23834</v>
       </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="D24" s="150"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="D25" s="150"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="D26" s="150"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="D27" s="150"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="D28" s="150"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6966,22 +7140,22 @@
         <v>5</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>45</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="15"/>
       <c r="J1" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="18"/>
@@ -6992,28 +7166,28 @@
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>51</v>
-      </c>
       <c r="J2" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>5</v>
@@ -7022,17 +7196,17 @@
         <v>33</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>58</v>
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="25"/>
@@ -7859,7 +8033,7 @@
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="127" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="128"/>
       <c r="D31" s="129"/>
@@ -7880,7 +8054,7 @@
     </row>
     <row r="32" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="134" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
